--- a/UI/Resources/patternShipmentTicket.xlsx
+++ b/UI/Resources/patternShipmentTicket.xlsx
@@ -24,13 +24,13 @@
     <t>出库单编号:</t>
   </si>
   <si>
-    <t>#WRITE ticket.No</t>
+    <t>@ticket.No</t>
   </si>
   <si>
     <t>出库时间：</t>
   </si>
   <si>
-    <t>#WRITE ticket.CreateTime.toLocaleDateString()</t>
+    <t>@ticket.CreateTime.toLocaleDateString()</t>
   </si>
   <si>
     <t>制表人：</t>
@@ -75,16 +75,16 @@
     <t>#REPEAT AREA 1 10 VAR i IN range(0,items.length)</t>
   </si>
   <si>
-    <t>#WRITE i</t>
-  </si>
-  <si>
-    <t>#WRITE items[i].ComponentNo</t>
-  </si>
-  <si>
-    <t>#WRITE items[i].ComponentName</t>
-  </si>
-  <si>
-    <t>#WRITE items[i].ShipmentAmount</t>
+    <t>@i</t>
+  </si>
+  <si>
+    <t>@items[i].ComponentNo</t>
+  </si>
+  <si>
+    <t>@items[i].ComponentName</t>
+  </si>
+  <si>
+    <t>@items[i].ShipmentAmount</t>
   </si>
   <si>
     <t>送货时间：</t>
@@ -103,8 +103,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -144,14 +144,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,91 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +271,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -308,90 +308,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,96 +489,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,11 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +651,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,32 +694,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,26 +728,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,7 +748,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,124 +757,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/UI/Resources/patternShipmentTicket.xlsx
+++ b/UI/Resources/patternShipmentTicket.xlsx
@@ -102,9 +102,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -150,9 +150,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,13 +240,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -196,82 +271,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -308,6 +308,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,175 +434,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +627,30 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,24 +670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -679,21 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -710,6 +701,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,145 +736,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/UI/Resources/patternShipmentTicket.xlsx
+++ b/UI/Resources/patternShipmentTicket.xlsx
@@ -75,7 +75,7 @@
     <t>#REPEAT AREA 1 10 VAR i IN range(0,items.length)</t>
   </si>
   <si>
-    <t>@i</t>
+    <t>@i+1</t>
   </si>
   <si>
     <t>@items[i].ComponentNo</t>
@@ -150,15 +150,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -166,14 +174,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -194,6 +241,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -202,86 +273,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +627,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +651,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +689,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -670,21 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -695,39 +728,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,133 +748,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D5" sqref="D5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/UI/Resources/patternShipmentTicket.xlsx
+++ b/UI/Resources/patternShipmentTicket.xlsx
@@ -16,32 +16,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>生产物流部出库单</t>
   </si>
   <si>
+    <t>@""//初始化代码</t>
+  </si>
+  <si>
     <t>出库单编号:</t>
   </si>
   <si>
-    <t>@ticket.No</t>
+    <t>@putOutStorageTicket.No</t>
   </si>
   <si>
     <t>出库时间：</t>
   </si>
   <si>
-    <t>@ticket.CreateTime.toLocaleDateString()</t>
+    <t>@putOutStorageTicket.CreateTime.toLocaleDateString()</t>
   </si>
   <si>
     <t>制表人：</t>
   </si>
   <si>
+    <t>@putOutStorageTicket.PersonName</t>
+  </si>
+  <si>
+    <t>@var items = putOutStorageTicketItems;""</t>
+  </si>
+  <si>
     <t>使用单位</t>
   </si>
   <si>
+    <t>@shipmentTicket.Destination</t>
+  </si>
+  <si>
     <t>出货单位</t>
   </si>
   <si>
+    <t>@shipmentTicket.Factory</t>
+  </si>
+  <si>
     <t>出库零件列表</t>
   </si>
   <si>
@@ -78,22 +93,28 @@
     <t>@i+1</t>
   </si>
   <si>
-    <t>@items[i].ComponentNo</t>
+    <t>@items[i].SupplyNo</t>
   </si>
   <si>
     <t>@items[i].ComponentName</t>
   </si>
   <si>
-    <t>@items[i].ShipmentAmount</t>
-  </si>
-  <si>
-    <t>送货时间：</t>
-  </si>
-  <si>
-    <t>车牌号：</t>
-  </si>
-  <si>
-    <t>送货司机：#WRITE '小明'</t>
+    <t>@items[i].Unit</t>
+  </si>
+  <si>
+    <t>@items[i].UnitAmount</t>
+  </si>
+  <si>
+    <t>@items[i].RealAmount</t>
+  </si>
+  <si>
+    <t>送货时间：@putOutStorageTicket.DeliverTime.toLocaleDateString()</t>
+  </si>
+  <si>
+    <t>车牌号：@putOutStorageTicket.CarNum</t>
+  </si>
+  <si>
+    <t>送货司机：@putOutStorageTicket.Driver</t>
   </si>
 </sst>
 </file>
@@ -101,8 +122,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -143,6 +164,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -150,16 +231,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,13 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -188,31 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,45 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -308,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +648,78 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,78 +741,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -736,10 +757,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,133 +769,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -904,13 +925,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -957,11 +978,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1324,7 +1345,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1342,51 +1363,61 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="28"/>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="15.75" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" ht="15.75" spans="1:11">
       <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="30"/>
+      <c r="I3" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="J3" s="30"/>
       <c r="K3" s="27"/>
     </row>
     <row r="4" ht="15.75" spans="1:11">
       <c r="A4" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1401,28 +1432,28 @@
     </row>
     <row r="5" ht="15.75" spans="1:11">
       <c r="A5" s="15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" s="27"/>
     </row>
@@ -1435,17 +1466,17 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="27"/>
     </row>
     <row r="7" ht="15.75" spans="1:11">
       <c r="A7" s="22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -1460,40 +1491,44 @@
     </row>
     <row r="8" ht="15.75" spans="1:11">
       <c r="A8" s="22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="32"/>
     </row>
     <row r="9" ht="15.75" spans="1:11">
       <c r="A9" s="24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="25"/>
       <c r="I9" s="33" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="27"/>
@@ -1544,7 +1579,7 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A4:J4"/>
